--- a/fieldmill10/fab/rev1/BOM-lista.xlsx
+++ b/fieldmill10/fab/rev1/BOM-lista.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="247">
   <si>
     <t xml:space="preserve">Gulmarkerad=Tillkommande komponenter</t>
   </si>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">Cap cer 10u</t>
   </si>
   <si>
-    <t xml:space="preserve">±20% 10V X7R</t>
+    <t xml:space="preserve">±20% 10V X7R soft termination</t>
   </si>
   <si>
     <t xml:space="preserve">KEMET</t>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">Cap cer 1u</t>
   </si>
   <si>
-    <t xml:space="preserve">±10% 25V X7R</t>
+    <t xml:space="preserve">±10% 25V X7R soft termination</t>
   </si>
   <si>
     <t xml:space="preserve">C0805X105K3RACAUTO</t>
@@ -325,7 +325,7 @@
     <t xml:space="preserve">Cap cer 47u</t>
   </si>
   <si>
-    <t xml:space="preserve">±10% 6.3V X7R</t>
+    <t xml:space="preserve">±10% 6.3V X7R soft termination</t>
   </si>
   <si>
     <t xml:space="preserve">Murata</t>
@@ -409,15 +409,12 @@
     <t xml:space="preserve">IR2</t>
   </si>
   <si>
-    <t xml:space="preserve">CONN_02X03</t>
+    <t xml:space="preserve">LPPB032NFSP-RC</t>
   </si>
   <si>
     <t xml:space="preserve">Low outgassing, 50 mil</t>
   </si>
   <si>
-    <t xml:space="preserve">LPPB032NFSP-RC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sullins</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
     <t xml:space="preserve">P12 P13</t>
   </si>
   <si>
-    <t xml:space="preserve">CONN_02X12</t>
-  </si>
-  <si>
     <t xml:space="preserve">LPPB122NFSP-RC</t>
   </si>
   <si>
@@ -470,6 +464,9 @@
   </si>
   <si>
     <t xml:space="preserve">R1 R12 R13 R34 R37 R39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumper</t>
   </si>
   <si>
     <t xml:space="preserve">R_1206</t>
@@ -930,7 +927,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -972,10 +969,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1035,10 +1028,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1049,10 +1038,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1162,7 +1147,7 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1176,9 +1161,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.33"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="24.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.67"/>
@@ -1283,7 +1268,7 @@
       <c r="G10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -1301,10 +1286,10 @@
       <c r="C11" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1313,7 +1298,7 @@
       <c r="G11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1323,10 +1308,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" s="15" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="15" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="14" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="14" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1335,11 +1320,11 @@
       <c r="B15" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="16" t="n">
+      <c r="C15" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -1348,7 +1333,7 @@
       <c r="G15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -1363,13 +1348,13 @@
       <c r="B16" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -1378,7 +1363,7 @@
       <c r="G16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -1387,7 +1372,7 @@
       <c r="K16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="19"/>
+      <c r="M16" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1407,37 +1392,37 @@
   </sheetPr>
   <dimension ref="A1:W65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="23.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="48.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="23.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="45.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="31.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="15" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="15" width="29.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="15" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="15" width="23.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="15" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="15" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="15" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="15" width="113.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="15" width="97.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="15" width="103.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="15" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="4.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="14.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="48.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="14" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="45.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="31.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="14" width="23.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="14" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="14" width="29.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="14" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="14" width="23.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="14" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="14" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="14" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="14" width="113.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="14" width="97.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="14" width="103.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="14" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1"/>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -1449,38 +1434,38 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="20" t="n">
+      <c r="F2" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
-      <c r="P4" s="21"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
@@ -1531,13 +1516,13 @@
       <c r="Q5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1552,10 +1537,10 @@
       <c r="E6" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="0" t="s">
@@ -1608,10 +1593,10 @@
       <c r="E7" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>52</v>
       </c>
       <c r="H7" s="0" t="s">
@@ -1664,10 +1649,10 @@
       <c r="E8" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H8" s="0" t="s">
@@ -1716,10 +1701,10 @@
       <c r="E9" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>83</v>
       </c>
       <c r="H9" s="0" t="s">
@@ -1768,10 +1753,10 @@
       <c r="E10" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>92</v>
       </c>
       <c r="H10" s="0" t="s">
@@ -1820,10 +1805,10 @@
       <c r="E11" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>100</v>
       </c>
       <c r="H11" s="0" t="s">
@@ -1868,10 +1853,10 @@
       <c r="E12" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>108</v>
       </c>
       <c r="H12" s="0" t="s">
@@ -1924,10 +1909,10 @@
       <c r="E13" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>119</v>
       </c>
       <c r="H13" s="0" t="s">
@@ -1968,7 +1953,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
         <v>9</v>
       </c>
@@ -1982,11 +1967,11 @@
       <c r="F14" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>130</v>
+      <c r="H14" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>25</v>
@@ -1996,19 +1981,19 @@
       </c>
       <c r="K14" s="0"/>
       <c r="L14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="N14" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="O14" s="0"/>
       <c r="P14" s="0"/>
       <c r="Q14" s="0"/>
       <c r="R14" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
@@ -2016,7 +2001,8 @@
       <c r="V14" s="0"/>
       <c r="W14" s="0"/>
     </row>
-    <row r="15" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20"/>
       <c r="B15" s="0" t="n">
         <v>10</v>
       </c>
@@ -2025,16 +2011,16 @@
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>137</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>25</v>
@@ -2044,21 +2030,21 @@
       </c>
       <c r="K15" s="0"/>
       <c r="L15" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="N15" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>140</v>
       </c>
       <c r="O15" s="0"/>
       <c r="P15" s="0"/>
       <c r="Q15" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="R15" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>142</v>
       </c>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
@@ -2066,7 +2052,8 @@
       <c r="V15" s="0"/>
       <c r="W15" s="0"/>
     </row>
-    <row r="16" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20"/>
       <c r="B16" s="0" t="n">
         <v>11</v>
       </c>
@@ -2075,16 +2062,16 @@
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>145</v>
+      <c r="H16" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>25</v>
@@ -2094,19 +2081,19 @@
       </c>
       <c r="K16" s="0"/>
       <c r="L16" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O16" s="0"/>
       <c r="P16" s="0"/>
       <c r="Q16" s="0"/>
       <c r="R16" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
@@ -2114,7 +2101,8 @@
       <c r="V16" s="0"/>
       <c r="W16" s="0"/>
     </row>
-    <row r="17" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20"/>
       <c r="B17" s="0" t="n">
         <v>12</v>
       </c>
@@ -2123,14 +2111,16 @@
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="F17" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>25</v>
@@ -2152,7 +2142,8 @@
       <c r="V17" s="0"/>
       <c r="W17" s="0"/>
     </row>
-    <row r="18" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20"/>
       <c r="B18" s="0" t="n">
         <v>13</v>
       </c>
@@ -2161,14 +2152,16 @@
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="F18" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>25</v>
@@ -2190,7 +2183,8 @@
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
     </row>
-    <row r="19" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20"/>
       <c r="B19" s="0" t="n">
         <v>14</v>
       </c>
@@ -2199,16 +2193,16 @@
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>154</v>
-      </c>
       <c r="H19" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>25</v>
@@ -2218,33 +2212,34 @@
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="N19" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>157</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>1109056</v>
       </c>
       <c r="P19" s="0"/>
       <c r="Q19" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="R19" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="R19" s="0" t="s">
+      <c r="S19" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="S19" s="0" t="s">
-        <v>160</v>
       </c>
       <c r="T19" s="0"/>
       <c r="U19" s="0"/>
       <c r="V19" s="0"/>
       <c r="W19" s="0"/>
     </row>
-    <row r="20" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20"/>
       <c r="B20" s="0" t="n">
         <v>15</v>
       </c>
@@ -2253,16 +2248,16 @@
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>163</v>
-      </c>
       <c r="H20" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>25</v>
@@ -2284,7 +2279,8 @@
       <c r="V20" s="0"/>
       <c r="W20" s="0"/>
     </row>
-    <row r="21" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20"/>
       <c r="B21" s="0" t="n">
         <v>16</v>
       </c>
@@ -2293,16 +2289,16 @@
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>163</v>
+      <c r="G21" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>25</v>
@@ -2324,7 +2320,8 @@
       <c r="V21" s="0"/>
       <c r="W21" s="0"/>
     </row>
-    <row r="22" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20"/>
       <c r="B22" s="0" t="n">
         <v>17</v>
       </c>
@@ -2333,16 +2330,16 @@
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>163</v>
+      <c r="G22" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>25</v>
@@ -2373,16 +2370,16 @@
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>163</v>
+      <c r="G23" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>25</v>
@@ -2413,16 +2410,16 @@
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="23" t="n">
+        <v>169</v>
+      </c>
+      <c r="F24" s="22" t="n">
         <v>50</v>
       </c>
-      <c r="G24" s="23" t="s">
-        <v>163</v>
+      <c r="G24" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>25</v>
@@ -2453,16 +2450,16 @@
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="G25" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="H25" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>174</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>25</v>
@@ -2472,26 +2469,26 @@
       </c>
       <c r="K25" s="0"/>
       <c r="L25" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="N25" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="N25" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="O25" s="0" t="n">
         <v>2580620</v>
       </c>
       <c r="P25" s="0"/>
       <c r="Q25" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="R25" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="R25" s="0" t="s">
+      <c r="S25" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="S25" s="0" t="s">
-        <v>179</v>
       </c>
       <c r="T25" s="0"/>
       <c r="U25" s="0"/>
@@ -2507,16 +2504,16 @@
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="G26" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="H26" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>183</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>25</v>
@@ -2526,26 +2523,26 @@
       </c>
       <c r="K26" s="0"/>
       <c r="L26" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="N26" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="N26" s="0" t="s">
-        <v>185</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>2518724</v>
       </c>
       <c r="P26" s="0"/>
       <c r="Q26" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="R26" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="R26" s="0" t="s">
+      <c r="S26" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="S26" s="0" t="s">
-        <v>188</v>
       </c>
       <c r="T26" s="0"/>
       <c r="U26" s="0"/>
@@ -2561,16 +2558,16 @@
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="G27" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="H27" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>25</v>
@@ -2583,23 +2580,23 @@
         <v>120</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>2778100</v>
       </c>
       <c r="P27" s="0"/>
       <c r="Q27" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="R27" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="R27" s="0" t="s">
+      <c r="S27" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="S27" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="T27" s="0"/>
       <c r="U27" s="0"/>
@@ -2615,16 +2612,16 @@
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>173</v>
+      <c r="G28" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>25</v>
@@ -2634,31 +2631,31 @@
       </c>
       <c r="K28" s="0"/>
       <c r="L28" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M28" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="N28" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="N28" s="0" t="s">
-        <v>199</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>2781817</v>
       </c>
       <c r="P28" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q28" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="Q28" s="0" t="s">
+      <c r="R28" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="R28" s="0" t="s">
+      <c r="S28" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="S28" s="0" t="s">
+      <c r="T28" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="T28" s="0" t="s">
-        <v>204</v>
       </c>
       <c r="U28" s="0"/>
       <c r="V28" s="0"/>
@@ -2673,16 +2670,16 @@
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>173</v>
+      <c r="G29" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>25</v>
@@ -2692,21 +2689,21 @@
       </c>
       <c r="K29" s="0"/>
       <c r="L29" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="N29" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>208</v>
       </c>
       <c r="O29" s="0"/>
       <c r="P29" s="0"/>
       <c r="Q29" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="R29" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="R29" s="0" t="s">
-        <v>210</v>
       </c>
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
@@ -2723,16 +2720,16 @@
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="G30" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>212</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>213</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>25</v>
@@ -2742,26 +2739,26 @@
       </c>
       <c r="K30" s="0"/>
       <c r="L30" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>2510952</v>
       </c>
       <c r="P30" s="0"/>
       <c r="Q30" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="R30" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="R30" s="0" t="s">
+      <c r="S30" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="S30" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="T30" s="0"/>
       <c r="U30" s="0"/>
@@ -2777,16 +2774,16 @@
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="G31" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="G31" s="23" t="s">
-        <v>220</v>
-      </c>
       <c r="H31" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>25</v>
@@ -2796,26 +2793,26 @@
       </c>
       <c r="K31" s="0"/>
       <c r="L31" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M31" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="N31" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="N31" s="0" t="s">
-        <v>222</v>
       </c>
       <c r="O31" s="0" t="n">
         <v>2514723</v>
       </c>
       <c r="P31" s="0"/>
       <c r="Q31" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="R31" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="R31" s="0" t="s">
+      <c r="S31" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="S31" s="0" t="s">
-        <v>225</v>
       </c>
       <c r="T31" s="0"/>
       <c r="U31" s="0"/>
@@ -2841,63 +2838,63 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="15" width="23.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="45.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="8.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="15" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="15" width="22.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="15" width="29.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="15" width="26.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="15" width="22.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="15" width="39.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="15" width="26.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="15" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="4.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="14" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="45.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="14" width="23.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="14" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="14" width="22.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="14" width="29.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="14" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="14" width="22.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="14" width="39.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="14" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="14" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1"/>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>226</v>
+      <c r="F1" s="19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>227</v>
+      <c r="F2" s="19" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2908,7 +2905,7 @@
       <c r="O4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="21"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" s="7" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
@@ -2961,34 +2958,34 @@
         <v>4</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="M6" s="25" t="s">
+      <c r="N6" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,7 +3006,7 @@
       <c r="G7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -3028,41 +3025,41 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="27"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="30"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -3071,7 +3068,7 @@
       <c r="G9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -3090,15 +3087,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>238</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -3125,7 +3122,7 @@
       <c r="G11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -3144,34 +3141,34 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="N12" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="O12" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>36</v>
@@ -3191,7 +3188,7 @@
       <c r="G13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -3200,79 +3197,87 @@
       <c r="K13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="K14" s="34"/>
-    </row>
-    <row r="15" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="K15" s="34"/>
-    </row>
-    <row r="16" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="K16" s="34"/>
-    </row>
-    <row r="17" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-      <c r="K17" s="34"/>
-    </row>
-    <row r="18" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="33"/>
-      <c r="K18" s="34"/>
-    </row>
-    <row r="19" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="K19" s="34"/>
-    </row>
-    <row r="20" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="31"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" s="20" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" s="20" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" s="20" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" s="20" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="30"/>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="K21" s="31"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3292,63 +3297,63 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="15" width="23.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="45.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="8.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="15" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="15" width="22.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="15" width="29.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="15" width="26.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="15" width="22.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="15" width="39.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="15" width="26.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="15" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="4.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="14" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="45.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="14" width="23.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="14" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="14" width="22.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="14" width="29.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="14" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="14" width="22.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="14" width="39.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="14" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="14" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1"/>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>226</v>
+      <c r="F1" s="19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>227</v>
+      <c r="F2" s="19" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3359,7 +3364,7 @@
       <c r="O4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="21"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" s="7" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
@@ -3412,34 +3417,34 @@
         <v>4</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="M6" s="25" t="s">
+      <c r="N6" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3450,17 +3455,17 @@
       <c r="C7" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -3478,30 +3483,30 @@
       <c r="C8" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="G8" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="27"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="30"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
@@ -3511,17 +3516,17 @@
       <c r="C9" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="34"/>
+      <c r="E9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -3539,17 +3544,17 @@
       <c r="C10" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>237</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>238</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -3564,11 +3569,11 @@
       <c r="B11" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -3577,7 +3582,7 @@
       <c r="G11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -3596,34 +3601,34 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="N12" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="O12" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,13 +3636,13 @@
       <c r="B13" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="16" t="n">
+      <c r="C13" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -3646,7 +3651,7 @@
       <c r="G13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -3655,79 +3660,87 @@
       <c r="K13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="K14" s="34"/>
-    </row>
-    <row r="15" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="K15" s="34"/>
-    </row>
-    <row r="16" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="K16" s="34"/>
-    </row>
-    <row r="17" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-      <c r="K17" s="34"/>
-    </row>
-    <row r="18" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="33"/>
-      <c r="K18" s="34"/>
-    </row>
-    <row r="19" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="K19" s="34"/>
-    </row>
-    <row r="20" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="31"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" s="20" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" s="20" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" s="20" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" s="20" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="30"/>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="K21" s="31"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
